--- a/RPL_V2/xlsx/club_rubin.xlsx
+++ b/RPL_V2/xlsx/club_rubin.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -274,7 +279,7 @@
     <t>Под прицелом "Рубина"</t>
   </si>
   <si>
-    <t xml:space="preserve"> Хвича Кварацхелия</t>
+    <t> Хвича Кварацхелия</t>
   </si>
   <si>
     <t>Сергей Рыжиков</t>
@@ -370,7 +375,7 @@
     <t>Иван Игнатьев</t>
   </si>
   <si>
-    <t xml:space="preserve"> Алехандро Домингес</t>
+    <t> Алехандро Домингес</t>
   </si>
   <si>
     <t>Ринат Билялетдинов</t>
@@ -583,8 +588,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,17 +648,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -691,9 +704,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,9 +738,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +773,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -934,14 +949,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="95.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="153.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1047,7 +1071,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1100,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1150,7 +1174,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1203,7 +1227,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1253,7 +1277,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1306,7 +1330,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1359,7 +1383,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1412,7 +1436,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1465,7 +1489,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1571,7 +1595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1624,7 +1648,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1677,7 +1701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1727,7 +1751,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1777,7 +1801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1827,7 +1851,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1880,7 +1904,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1933,7 +1957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1986,7 +2010,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2039,7 +2063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2092,7 +2116,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2145,7 +2169,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2198,7 +2222,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2251,7 +2275,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2304,7 +2328,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2357,7 +2381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2410,7 +2434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2463,7 +2487,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2516,7 +2540,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2569,7 +2593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2622,7 +2646,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2675,7 +2699,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2728,7 +2752,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2781,7 +2805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
